--- a/environment/runtimefiles/zcadelectrotech/preload/xlsxtemplates/modelinxlsx/ЭМО.xlsx
+++ b/environment/runtimefiles/zcadelectrotech/preload/xlsxtemplates/modelinxlsx/ЭМО.xlsx
@@ -5,21 +5,24 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YandexDisk\zcad-test\ETALON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zcad\zcad\cad\preload\xlsxtemplates\modelinxlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198B7F30-A164-4FBA-BC5E-11EB64BCB61C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB42B9D7-A086-46A2-B4FE-2C9324BFFE6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11955" yWindow="2790" windowWidth="33375" windowHeight="14895" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
+    <workbookView xWindow="23205" yWindow="2100" windowWidth="23985" windowHeight="14895" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
   </bookViews>
   <sheets>
     <sheet name="&lt;workbook&gt;SET" sheetId="7" r:id="rId1"/>
     <sheet name="BD" sheetId="4" r:id="rId2"/>
-    <sheet name="&lt;zlight&gt;SET" sheetId="1" r:id="rId3"/>
-    <sheet name="&lt;zlight&gt;TOCAD" sheetId="6" r:id="rId4"/>
-    <sheet name="&lt;zlight&gt;" sheetId="3" r:id="rId5"/>
-    <sheet name="&lt;zlight&gt;DEVEXPORT" sheetId="2" r:id="rId6"/>
-    <sheet name="&lt;zlight&gt;CABEXPORT" sheetId="5" r:id="rId7"/>
+    <sheet name="&lt;zmain&gt;SET" sheetId="8" r:id="rId3"/>
+    <sheet name="&lt;zmain&gt;DEVEXPORT" sheetId="9" r:id="rId4"/>
+    <sheet name="&lt;zmain&gt;" sheetId="10" r:id="rId5"/>
+    <sheet name="&lt;zlight&gt;SET" sheetId="1" r:id="rId6"/>
+    <sheet name="&lt;zlight&gt;TOCAD" sheetId="6" r:id="rId7"/>
+    <sheet name="&lt;zlight&gt;" sheetId="3" r:id="rId8"/>
+    <sheet name="&lt;zlight&gt;DEVEXPORT" sheetId="2" r:id="rId9"/>
+    <sheet name="&lt;zlight&gt;CABEXPORT" sheetId="5" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -428,7 +431,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="140">
   <si>
     <t>&lt;zlight&gt;DEVEXPORT</t>
   </si>
@@ -926,10 +929,22 @@
     <t>hide</t>
   </si>
   <si>
+    <t>ГРЩ</t>
+  </si>
+  <si>
+    <t>&lt;zmain&gt;DEVEXPORT</t>
+  </si>
+  <si>
+    <t>&lt;zmain&gt;</t>
+  </si>
+  <si>
     <t>DEVEXPORT</t>
   </si>
   <si>
     <t>CABEXPORT</t>
+  </si>
+  <si>
+    <t>&lt;workbook&gt;</t>
   </si>
 </sst>
 </file>
@@ -940,7 +955,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1069,6 +1084,22 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -1532,7 +1563,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1746,6 +1777,48 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -1788,42 +1861,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -2142,10 +2179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9A3CA2-6484-4A78-8C46-2DFDF58AF4E8}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2169,20 +2206,132 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2652C0-E32A-4424-80F0-EAFBD7621661}">
+  <dimension ref="C3:O5"/>
+  <sheetViews>
+    <sheetView topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="I3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="J4" s="1"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <f>IF(D4&lt;&gt;D5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <f>SUMIFS($H$4:$H$12000,$D$4:$D$12000,D5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <f>IF(SUMIFS($I$5:I5,$D$5:D5,D5)=1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <f>IF(L5=1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <f>IF(L5=1,SUMIFS($H$4:$H$12000,$D$4:$D$12000,D5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2737,6 +2886,361 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D3B741-841A-4380-8CF6-69D9C360B6A6}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E9D57B-03FA-4732-B562-B52ADE28B03D}">
+  <dimension ref="B1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D1" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFBE0E3-93E9-4D98-927D-A8C9FCC59321}">
+  <dimension ref="E8:P22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="8" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E8" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+    </row>
+    <row r="9" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+    </row>
+    <row r="10" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+    </row>
+    <row r="11" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+    </row>
+    <row r="12" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+    </row>
+    <row r="13" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+    </row>
+    <row r="14" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+    </row>
+    <row r="15" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+    </row>
+    <row r="16" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+    </row>
+    <row r="17" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+    </row>
+    <row r="18" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+    </row>
+    <row r="19" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
+    </row>
+    <row r="20" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+    </row>
+    <row r="21" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+    </row>
+    <row r="22" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E8:P22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FDFFC8-3239-46C1-B119-51B6AFCFF800}">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:A4"/>
@@ -2775,7 +3279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1716B96F-A01E-4EBE-9361-360895827D35}">
   <dimension ref="B4:AL8"/>
   <sheetViews>
@@ -2960,7 +3464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D8C22C-893A-456C-B6B4-5CEC07C317DD}">
   <dimension ref="C13:BT24"/>
   <sheetViews>
@@ -3007,95 +3511,95 @@
     </row>
     <row r="20" spans="3:72" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="3:72" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="69"/>
-      <c r="S21" s="68"/>
-      <c r="T21" s="68"/>
-      <c r="U21" s="68"/>
-      <c r="V21" s="68"/>
-      <c r="W21" s="68"/>
-      <c r="X21" s="68"/>
-      <c r="Y21" s="68"/>
-      <c r="Z21" s="68"/>
-      <c r="AA21" s="70"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="79"/>
+      <c r="R21" s="80"/>
+      <c r="S21" s="79"/>
+      <c r="T21" s="79"/>
+      <c r="U21" s="79"/>
+      <c r="V21" s="79"/>
+      <c r="W21" s="79"/>
+      <c r="X21" s="79"/>
+      <c r="Y21" s="79"/>
+      <c r="Z21" s="79"/>
+      <c r="AA21" s="81"/>
     </row>
     <row r="22" spans="3:72" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D22" s="12"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="71" t="s">
+      <c r="G22" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="72"/>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="76" t="s">
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="83"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="83"/>
+      <c r="N22" s="83"/>
+      <c r="O22" s="83"/>
+      <c r="P22" s="83"/>
+      <c r="Q22" s="83"/>
+      <c r="R22" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="S22" s="73" t="s">
+      <c r="S22" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="T22" s="73"/>
-      <c r="U22" s="73"/>
-      <c r="V22" s="73"/>
-      <c r="W22" s="74"/>
-      <c r="X22" s="75" t="s">
+      <c r="T22" s="84"/>
+      <c r="U22" s="84"/>
+      <c r="V22" s="84"/>
+      <c r="W22" s="85"/>
+      <c r="X22" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="Y22" s="73"/>
-      <c r="Z22" s="73"/>
-      <c r="AA22" s="74"/>
-      <c r="AB22" s="83" t="s">
+      <c r="Y22" s="84"/>
+      <c r="Z22" s="84"/>
+      <c r="AA22" s="85"/>
+      <c r="AB22" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="AC22" s="84"/>
-      <c r="AD22" s="84"/>
-      <c r="AE22" s="84"/>
-      <c r="AF22" s="84"/>
-      <c r="AG22" s="84"/>
-      <c r="AH22" s="84"/>
-      <c r="AI22" s="85"/>
-      <c r="AJ22" s="77" t="s">
+      <c r="AC22" s="74"/>
+      <c r="AD22" s="74"/>
+      <c r="AE22" s="74"/>
+      <c r="AF22" s="74"/>
+      <c r="AG22" s="74"/>
+      <c r="AH22" s="74"/>
+      <c r="AI22" s="75"/>
+      <c r="AJ22" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="AK22" s="78"/>
-      <c r="AL22" s="78"/>
-      <c r="AM22" s="78"/>
-      <c r="AN22" s="78"/>
-      <c r="AO22" s="78"/>
-      <c r="AP22" s="78"/>
-      <c r="AQ22" s="78"/>
-      <c r="AR22" s="78"/>
-      <c r="AS22" s="78"/>
-      <c r="AT22" s="79"/>
-      <c r="AU22" s="80" t="s">
+      <c r="AK22" s="68"/>
+      <c r="AL22" s="68"/>
+      <c r="AM22" s="68"/>
+      <c r="AN22" s="68"/>
+      <c r="AO22" s="68"/>
+      <c r="AP22" s="68"/>
+      <c r="AQ22" s="68"/>
+      <c r="AR22" s="68"/>
+      <c r="AS22" s="68"/>
+      <c r="AT22" s="69"/>
+      <c r="AU22" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="AV22" s="81"/>
-      <c r="AW22" s="81"/>
-      <c r="AX22" s="82"/>
+      <c r="AV22" s="71"/>
+      <c r="AW22" s="71"/>
+      <c r="AX22" s="72"/>
       <c r="AY22" s="45"/>
       <c r="AZ22" s="45"/>
       <c r="BA22" s="45"/>
@@ -3109,10 +3613,10 @@
       <c r="BI22" s="45"/>
     </row>
     <row r="23" spans="3:72" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="65" t="s">
+      <c r="D23" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="66"/>
+      <c r="E23" s="77"/>
       <c r="F23" s="23" t="s">
         <v>116</v>
       </c>
@@ -3149,7 +3653,7 @@
       <c r="Q23" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="R23" s="76"/>
+      <c r="R23" s="87"/>
       <c r="S23" s="20" t="s">
         <v>49</v>
       </c>
@@ -3455,7 +3959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772FECD8-F93D-41DA-984E-EC1C5AEE2748}">
   <dimension ref="B3:Z5"/>
   <sheetViews>
@@ -3659,100 +4163,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2652C0-E32A-4424-80F0-EAFBD7621661}">
-  <dimension ref="C3:O5"/>
-  <sheetViews>
-    <sheetView topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="I3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="J4" s="1"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <f>IF(D4&lt;&gt;D5,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="K5" s="1">
-        <f>SUMIFS($H$4:$H$12000,$D$4:$D$12000,D5)</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <f>IF(SUMIFS($I$5:I5,$D$5:D5,D5)=1,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="M5" s="1">
-        <f>IF(L5=1,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="N5" s="1">
-        <f>IF(L5=1,SUMIFS($H$4:$H$12000,$D$4:$D$12000,D5),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/environment/runtimefiles/zcadelectrotech/preload/xlsxtemplates/modelinxlsx/ЭМО.xlsx
+++ b/environment/runtimefiles/zcadelectrotech/preload/xlsxtemplates/modelinxlsx/ЭМО.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zcad\zcad\environment\runtimefiles\zcadelectrotech\preload\xlsxtemplates\modelinxlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A18323-A5C0-47C5-ADCD-E58BD7594A14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AD2B35-CBCF-4DFA-994F-8E1ED63110FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10035" yWindow="465" windowWidth="36210" windowHeight="20880" firstSheet="2" activeTab="10" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
+    <workbookView xWindow="7125" yWindow="570" windowWidth="36210" windowHeight="19020" firstSheet="2" activeTab="10" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
   </bookViews>
   <sheets>
     <sheet name="&lt;workbook&gt;SET" sheetId="7" r:id="rId1"/>
@@ -358,7 +358,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="310">
   <si>
     <t>&lt;zlight&gt;DEVEXPORT</t>
   </si>
@@ -1282,6 +1282,21 @@
   </si>
   <si>
     <t>INTEGER_0</t>
+  </si>
+  <si>
+    <t>NAME_BLOCK</t>
+  </si>
+  <si>
+    <t>MOVE_X</t>
+  </si>
+  <si>
+    <t>MOVE_Y</t>
+  </si>
+  <si>
+    <t>SCALE_X</t>
+  </si>
+  <si>
+    <t>SCALE_Y</t>
   </si>
 </sst>
 </file>
@@ -2120,7 +2135,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2409,6 +2424,42 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -2455,42 +2506,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3350,10 +3366,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D8C22C-893A-456C-B6B4-5CEC07C317DD}">
-  <dimension ref="C13:DS24"/>
+  <dimension ref="C13:DU24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BY1" workbookViewId="0">
-      <selection activeCell="CI25" sqref="CI25"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="BL25" sqref="BL25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3382,10 +3398,10 @@
     <col min="50" max="53" width="8.85546875" customWidth="1"/>
     <col min="54" max="62" width="10.42578125" customWidth="1"/>
     <col min="63" max="63" width="28" customWidth="1"/>
-    <col min="64" max="122" width="10.42578125" customWidth="1"/>
+    <col min="64" max="124" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="12:121" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="12:123" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L13" s="10" t="s">
         <v>84</v>
       </c>
@@ -3397,7 +3413,7 @@
       <c r="AA13" s="53"/>
       <c r="AB13" s="53"/>
     </row>
-    <row r="14" spans="12:121" x14ac:dyDescent="0.25">
+    <row r="14" spans="12:123" x14ac:dyDescent="0.25">
       <c r="L14" s="10" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -3406,21 +3422,19 @@
         <f>SUM(X24:X12000)</f>
         <v>1</v>
       </c>
-      <c r="CX14" s="1" t="s">
+      <c r="CZ14" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="CY14" s="1" t="s">
+      <c r="DA14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CZ14" s="1"/>
-      <c r="DA14" s="1"/>
       <c r="DB14" s="1"/>
       <c r="DC14" s="1"/>
-      <c r="DD14" s="1" t="s">
+      <c r="DD14" s="1"/>
+      <c r="DE14" s="1"/>
+      <c r="DF14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="DE14" s="1"/>
-      <c r="DF14" s="1"/>
       <c r="DG14" s="1"/>
       <c r="DH14" s="1"/>
       <c r="DI14" s="1"/>
@@ -3432,155 +3446,178 @@
       <c r="DO14" s="1"/>
       <c r="DP14" s="1"/>
       <c r="DQ14" s="1"/>
-    </row>
-    <row r="16" spans="12:121" x14ac:dyDescent="0.25">
-      <c r="DP16" s="1" t="s">
+      <c r="DR14" s="1"/>
+      <c r="DS14" s="1"/>
+    </row>
+    <row r="16" spans="12:123" x14ac:dyDescent="0.25">
+      <c r="DR16" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="3:123" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="CW21" t="s">
+    <row r="21" spans="3:125" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BK21" s="115" t="s">
+        <v>305</v>
+      </c>
+      <c r="BL21" s="115" t="s">
+        <v>306</v>
+      </c>
+      <c r="BM21" s="115" t="s">
+        <v>307</v>
+      </c>
+      <c r="BN21" s="115" t="s">
+        <v>308</v>
+      </c>
+      <c r="BO21" s="115" t="s">
+        <v>309</v>
+      </c>
+      <c r="CY21" t="s">
         <v>284</v>
       </c>
-      <c r="CY21" t="s">
+      <c r="DA21" t="s">
         <v>285</v>
       </c>
-      <c r="DA21" t="s">
+      <c r="DC21" t="s">
         <v>286</v>
       </c>
-      <c r="DC21" t="s">
+      <c r="DE21" t="s">
         <v>287</v>
       </c>
-      <c r="DE21" t="s">
+      <c r="DG21" t="s">
         <v>288</v>
       </c>
-      <c r="DG21" t="s">
+      <c r="DI21" t="s">
         <v>289</v>
       </c>
-      <c r="DI21" t="s">
+      <c r="DK21" t="s">
         <v>290</v>
       </c>
-      <c r="DK21" t="s">
+      <c r="DM21" t="s">
         <v>291</v>
       </c>
-      <c r="DM21" t="s">
+      <c r="DO21" t="s">
         <v>286</v>
       </c>
-      <c r="DO21" t="s">
+      <c r="DQ21" t="s">
         <v>287</v>
       </c>
-      <c r="DQ21" t="s">
+      <c r="DS21" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="22" spans="3:123" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="96" t="s">
+    <row r="22" spans="3:125" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="105" t="s">
         <v>116</v>
       </c>
-      <c r="E22" s="104" t="s">
+      <c r="E22" s="113" t="s">
         <v>197</v>
       </c>
-      <c r="F22" s="94" t="s">
+      <c r="F22" s="103" t="s">
         <v>198</v>
       </c>
-      <c r="G22" s="104" t="s">
+      <c r="G22" s="113" t="s">
         <v>199</v>
       </c>
-      <c r="H22" s="94" t="s">
+      <c r="H22" s="103" t="s">
         <v>200</v>
       </c>
-      <c r="I22" s="94" t="s">
+      <c r="I22" s="103" t="s">
         <v>201</v>
       </c>
-      <c r="J22" s="100" t="s">
+      <c r="J22" s="109" t="s">
         <v>130</v>
       </c>
-      <c r="K22" s="101"/>
-      <c r="L22" s="98" t="s">
+      <c r="K22" s="110"/>
+      <c r="L22" s="107" t="s">
         <v>131</v>
       </c>
-      <c r="M22" s="99"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="99"/>
-      <c r="P22" s="99"/>
-      <c r="Q22" s="99"/>
-      <c r="R22" s="99"/>
-      <c r="S22" s="99"/>
-      <c r="T22" s="99"/>
-      <c r="U22" s="99"/>
-      <c r="V22" s="99"/>
-      <c r="W22" s="99"/>
-      <c r="X22" s="106" t="s">
+      <c r="M22" s="108"/>
+      <c r="N22" s="108"/>
+      <c r="O22" s="108"/>
+      <c r="P22" s="108"/>
+      <c r="Q22" s="108"/>
+      <c r="R22" s="108"/>
+      <c r="S22" s="108"/>
+      <c r="T22" s="108"/>
+      <c r="U22" s="108"/>
+      <c r="V22" s="108"/>
+      <c r="W22" s="108"/>
+      <c r="X22" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="Y22" s="107"/>
-      <c r="Z22" s="107"/>
-      <c r="AA22" s="107"/>
-      <c r="AB22" s="107"/>
-      <c r="AC22" s="107"/>
-      <c r="AD22" s="107"/>
-      <c r="AE22" s="107"/>
-      <c r="AF22" s="108"/>
-      <c r="AG22" s="109" t="s">
+      <c r="Y22" s="95"/>
+      <c r="Z22" s="95"/>
+      <c r="AA22" s="95"/>
+      <c r="AB22" s="95"/>
+      <c r="AC22" s="95"/>
+      <c r="AD22" s="95"/>
+      <c r="AE22" s="95"/>
+      <c r="AF22" s="96"/>
+      <c r="AG22" s="97" t="s">
         <v>137</v>
       </c>
-      <c r="AH22" s="110"/>
-      <c r="AI22" s="110"/>
-      <c r="AJ22" s="110"/>
-      <c r="AK22" s="110"/>
-      <c r="AL22" s="110"/>
-      <c r="AM22" s="110"/>
-      <c r="AN22" s="110"/>
-      <c r="AO22" s="110"/>
-      <c r="AP22" s="110"/>
-      <c r="AQ22" s="110"/>
-      <c r="AR22" s="110"/>
-      <c r="AS22" s="110"/>
-      <c r="AT22" s="111"/>
-      <c r="AU22" s="106" t="s">
+      <c r="AH22" s="98"/>
+      <c r="AI22" s="98"/>
+      <c r="AJ22" s="98"/>
+      <c r="AK22" s="98"/>
+      <c r="AL22" s="98"/>
+      <c r="AM22" s="98"/>
+      <c r="AN22" s="98"/>
+      <c r="AO22" s="98"/>
+      <c r="AP22" s="98"/>
+      <c r="AQ22" s="98"/>
+      <c r="AR22" s="98"/>
+      <c r="AS22" s="98"/>
+      <c r="AT22" s="99"/>
+      <c r="AU22" s="94" t="s">
         <v>229</v>
       </c>
-      <c r="AV22" s="107"/>
-      <c r="AW22" s="107"/>
-      <c r="AX22" s="107"/>
-      <c r="AY22" s="107"/>
-      <c r="AZ22" s="107"/>
-      <c r="BA22" s="107"/>
-      <c r="BB22" s="108"/>
-      <c r="BC22" s="112" t="s">
+      <c r="AV22" s="95"/>
+      <c r="AW22" s="95"/>
+      <c r="AX22" s="95"/>
+      <c r="AY22" s="95"/>
+      <c r="AZ22" s="95"/>
+      <c r="BA22" s="95"/>
+      <c r="BB22" s="96"/>
+      <c r="BC22" s="100" t="s">
         <v>237</v>
       </c>
-      <c r="BD22" s="113"/>
-      <c r="BE22" s="113"/>
-      <c r="BF22" s="113"/>
-      <c r="BG22" s="113"/>
-      <c r="BH22" s="113"/>
-      <c r="BI22" s="114"/>
+      <c r="BD22" s="101"/>
+      <c r="BE22" s="101"/>
+      <c r="BF22" s="101"/>
+      <c r="BG22" s="101"/>
+      <c r="BH22" s="101"/>
+      <c r="BI22" s="102"/>
       <c r="BJ22" t="s">
         <v>61</v>
       </c>
-      <c r="BK22" t="s">
+      <c r="BK22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BL22">
-        <v>0</v>
-      </c>
-      <c r="BM22">
-        <v>0</v>
-      </c>
-      <c r="DR22" t="s">
+      <c r="BL22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN22" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO22" s="1">
+        <v>1</v>
+      </c>
+      <c r="DT22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="3:123" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="D23" s="97"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="102"/>
-      <c r="K23" s="103"/>
+    <row r="23" spans="3:125" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="D23" s="106"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="112"/>
       <c r="L23" s="57" t="s">
         <v>129</v>
       </c>
@@ -3734,20 +3771,26 @@
       <c r="BJ23" t="s">
         <v>61</v>
       </c>
-      <c r="BK23" t="s">
+      <c r="BK23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BL23">
+      <c r="BL23" s="1">
         <v>60</v>
       </c>
-      <c r="BM23">
-        <v>0</v>
-      </c>
-      <c r="DR23" t="s">
+      <c r="BM23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN23" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO23" s="1">
+        <v>1</v>
+      </c>
+      <c r="DT23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="3:123" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:125" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>50</v>
       </c>
@@ -3970,212 +4013,213 @@
       <c r="BJ24" t="s">
         <v>61</v>
       </c>
-      <c r="BK24" t="s">
+      <c r="BK24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BL24">
-        <f>BL23+25</f>
+      <c r="BL24" s="1">
+        <f>COUNTIF($BK$24:BK24,"*")*25+$BL$23</f>
         <v>85</v>
       </c>
-      <c r="BM24">
-        <v>0</v>
-      </c>
-      <c r="BN24" s="1" t="s">
+      <c r="BM24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN24" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO24" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BO24" s="1" t="e">
-        <f ca="1">AZ24</f>
+      <c r="BQ24" s="1" t="e">
+        <f ca="1">IF(H24="","",AZ24)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BP24" s="1" t="s">
+      <c r="BR24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BQ24" s="1" t="e">
-        <f ca="1">BA24</f>
+      <c r="BS24" s="1" t="e">
+        <f ca="1">IF(H24="","",BA24)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BR24" s="1" t="s">
+      <c r="BT24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BS24" s="1" t="e">
-        <f ca="1">BB24</f>
+      <c r="BU24" s="1" t="e">
+        <f ca="1">IF(H24="","",BB24)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BT24" s="1" t="s">
+      <c r="BV24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BU24" s="1" t="e">
+      <c r="BW24" s="1" t="e">
         <f ca="1">BG24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BV24" s="1" t="s">
+      <c r="BX24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BW24" s="1" t="e">
+      <c r="BY24" s="1" t="e">
         <f ca="1">BH24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BX24" s="1" t="s">
+      <c r="BZ24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BY24" t="e">
+      <c r="CA24" t="e">
         <f ca="1">BI24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BZ24" s="1" t="s">
+      <c r="CB24" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="CA24" t="s">
-        <v>276</v>
-      </c>
-      <c r="CB24" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="CC24" t="s">
         <v>276</v>
       </c>
       <c r="CD24" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="CE24" t="s">
         <v>276</v>
       </c>
-      <c r="CF24" t="s">
+      <c r="CF24" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="CG24" t="s">
+        <v>276</v>
+      </c>
+      <c r="CH24" t="s">
         <v>76</v>
       </c>
-      <c r="CG24" s="1" t="str">
+      <c r="CI24" s="1" t="str">
         <f>AG24</f>
         <v>GC_HeadDevice.GC_HDGroup</v>
       </c>
-      <c r="CH24" t="s">
+      <c r="CJ24" t="s">
         <v>75</v>
       </c>
-      <c r="CI24" s="1" t="e">
+      <c r="CK24" s="1" t="e">
         <f ca="1">IF(H24="",IF(I24="","","L="&amp;AI24&amp;"м"),"L="&amp;AI24&amp;"м")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="CJ24" t="s">
+      <c r="CL24" t="s">
         <v>277</v>
-      </c>
-      <c r="CK24" s="1"/>
-      <c r="CL24" t="s">
-        <v>278</v>
       </c>
       <c r="CM24" s="1"/>
       <c r="CN24" t="s">
+        <v>278</v>
+      </c>
+      <c r="CO24" s="1"/>
+      <c r="CP24" t="s">
         <v>77</v>
       </c>
-      <c r="CO24" s="1" t="str">
+      <c r="CQ24" s="1" t="str">
         <f>L24</f>
         <v>Position</v>
       </c>
-      <c r="CP24" s="1" t="s">
+      <c r="CR24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="CQ24" s="1" t="e">
+      <c r="CS24" s="1" t="e">
         <f>O24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="CR24" s="1" t="s">
+      <c r="CT24" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="CS24" s="1" t="e">
+      <c r="CU24" s="1" t="e">
         <f>Q24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="CT24" s="1" t="s">
+      <c r="CV24" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="CU24" s="1" t="str">
+      <c r="CW24" s="1" t="str">
         <f>W24</f>
         <v>realnamedev</v>
       </c>
-      <c r="CV24" s="1" t="s">
+      <c r="CX24" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="CW24" s="1" t="s">
+      <c r="CY24" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="CX24" s="1" t="s">
+      <c r="CZ24" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="CY24" s="1" t="s">
+      <c r="DA24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CZ24" s="1" t="s">
+      <c r="DB24" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="DA24" s="1" t="e">
+      <c r="DC24" s="1" t="e">
         <f ca="1">IF(H24="","BOOLEAN_0","BOOLEAN_1")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="DB24" s="1" t="s">
+      <c r="DD24" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="DC24" s="1" t="e">
+      <c r="DE24" s="1" t="e">
         <f ca="1">IF(I24="","BOOLEAN_0","BOOLEAN_1")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="DD24" t="s">
+      <c r="DF24" t="s">
         <v>283</v>
       </c>
-      <c r="DE24" t="e">
+      <c r="DG24" t="e">
         <f ca="1">IF(H24="",IF(I24="","BOOLEAN_0","BOOLEAN_0"),"BOOLEAN_0")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="DF24" t="s">
+      <c r="DH24" t="s">
         <v>83</v>
       </c>
-      <c r="DG24" s="1" t="e">
+      <c r="DI24" s="1" t="e">
         <f ca="1">IF(H24="",IF(I24="","BOOLEAN_1","BOOLEAN_0"),"BOOLEAN_0")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="DH24" t="s">
+      <c r="DJ24" t="s">
         <v>86</v>
       </c>
-      <c r="DI24" s="1" t="s">
+      <c r="DK24" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="DJ24" t="s">
+      <c r="DL24" t="s">
         <v>292</v>
       </c>
-      <c r="DK24" s="1" t="s">
+      <c r="DM24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="DL24" t="s">
+      <c r="DN24" t="s">
         <v>89</v>
       </c>
-      <c r="DM24" t="e">
+      <c r="DO24" t="e">
         <f ca="1">IF(E24="","INTEGER_0","INTEGER_"&amp;INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BO$5,1,MATCH(E24&amp;"N",BD!$K$4:$BP$4,0))),MATCH(AV24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BO$5,1,MATCH(E24&amp;"I",BD!$K$4:$BP$4,0))),0)))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="DN24" t="s">
+      <c r="DP24" t="s">
         <v>302</v>
       </c>
-      <c r="DO24" t="e">
+      <c r="DQ24" t="e">
         <f ca="1">IF(G24="","INTEGER_0","INTEGER_"&amp;INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BR$5,1,MATCH(G24&amp;"N",BD!$K$4:$BS$4,0))),MATCH(BC24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BR$5,1,MATCH(G24&amp;"I",BD!$K$4:$BS$4,0))),0)))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="DP24" t="s">
+      <c r="DR24" t="s">
         <v>303</v>
       </c>
-      <c r="DQ24" s="1" t="s">
+      <c r="DS24" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="DR24" t="s">
+      <c r="DT24" t="s">
         <v>60</v>
       </c>
-      <c r="DS24" t="s">
+      <c r="DU24" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="X22:AF22"/>
-    <mergeCell ref="AG22:AT22"/>
-    <mergeCell ref="BC22:BI22"/>
-    <mergeCell ref="AU22:BB22"/>
-    <mergeCell ref="I22:I23"/>
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="L22:W22"/>
     <mergeCell ref="J22:K23"/>
@@ -4183,6 +4227,11 @@
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H22:H23"/>
+    <mergeCell ref="X22:AF22"/>
+    <mergeCell ref="AG22:AT22"/>
+    <mergeCell ref="BC22:BI22"/>
+    <mergeCell ref="AU22:BB22"/>
+    <mergeCell ref="I22:I23"/>
   </mergeCells>
   <conditionalFormatting sqref="M24">
     <cfRule type="expression" dxfId="8" priority="16">
